--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H2">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I2">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J2">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N2">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q2">
-        <v>25.23428080995378</v>
+        <v>104.9303403108956</v>
       </c>
       <c r="R2">
-        <v>227.108527289584</v>
+        <v>944.3730627980601</v>
       </c>
       <c r="S2">
-        <v>0.02294666462025288</v>
+        <v>0.06440024678587346</v>
       </c>
       <c r="T2">
-        <v>0.02294666462025288</v>
+        <v>0.06440024678587347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H3">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I3">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J3">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N3">
         <v>131.049072</v>
       </c>
       <c r="O3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q3">
-        <v>32.74176610073601</v>
+        <v>90.12084510352</v>
       </c>
       <c r="R3">
-        <v>294.675894906624</v>
+        <v>811.0876059316801</v>
       </c>
       <c r="S3">
-        <v>0.02977355809926608</v>
+        <v>0.05531102489539452</v>
       </c>
       <c r="T3">
-        <v>0.02977355809926608</v>
+        <v>0.05531102489539454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H4">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I4">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J4">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N4">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q4">
-        <v>25.66876724774578</v>
+        <v>75.59807925202556</v>
       </c>
       <c r="R4">
-        <v>231.018905229712</v>
+        <v>680.3827132682301</v>
       </c>
       <c r="S4">
-        <v>0.02334176264762082</v>
+        <v>0.046397781098809</v>
       </c>
       <c r="T4">
-        <v>0.02334176264762082</v>
+        <v>0.04639778109880902</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7495306666666667</v>
+        <v>2.063063333333333</v>
       </c>
       <c r="H5">
-        <v>2.248592</v>
+        <v>6.189190000000001</v>
       </c>
       <c r="I5">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="J5">
-        <v>0.08809705645632541</v>
+        <v>0.1875199417503197</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N5">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q5">
-        <v>13.23488046991467</v>
+        <v>34.88576485547222</v>
       </c>
       <c r="R5">
-        <v>119.113924229232</v>
+        <v>313.97188369925</v>
       </c>
       <c r="S5">
-        <v>0.01203507108918564</v>
+        <v>0.02141088897024266</v>
       </c>
       <c r="T5">
-        <v>0.01203507108918564</v>
+        <v>0.02141088897024267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.289964</v>
       </c>
       <c r="I6">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J6">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N6">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q6">
-        <v>194.0324464242475</v>
+        <v>293.1307338251262</v>
       </c>
       <c r="R6">
-        <v>1746.292017818228</v>
+        <v>2638.176604426135</v>
       </c>
       <c r="S6">
-        <v>0.1764424160560235</v>
+        <v>0.1799068938776912</v>
       </c>
       <c r="T6">
-        <v>0.1764424160560235</v>
+        <v>0.1799068938776912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.289964</v>
       </c>
       <c r="I7">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J7">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N7">
         <v>131.049072</v>
       </c>
       <c r="O7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q7">
         <v>251.759304123712</v>
@@ -883,10 +883,10 @@
         <v>2265.833737113408</v>
       </c>
       <c r="S7">
-        <v>0.2289360398365817</v>
+        <v>0.1545154744392198</v>
       </c>
       <c r="T7">
-        <v>0.2289360398365817</v>
+        <v>0.1545154744392198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.289964</v>
       </c>
       <c r="I8">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J8">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N8">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q8">
-        <v>197.3733170081115</v>
+        <v>211.1888742689542</v>
       </c>
       <c r="R8">
-        <v>1776.359853073004</v>
+        <v>1900.699868420588</v>
       </c>
       <c r="S8">
-        <v>0.1794804196910371</v>
+        <v>0.1296156629346147</v>
       </c>
       <c r="T8">
-        <v>0.1794804196910371</v>
+        <v>0.1296156629346147</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.289964</v>
       </c>
       <c r="I9">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="J9">
-        <v>0.6773994280135454</v>
+        <v>0.5238509469163369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N9">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q9">
-        <v>101.7661749526493</v>
+        <v>97.45598672258889</v>
       </c>
       <c r="R9">
-        <v>915.8955745738439</v>
+        <v>877.1038805032999</v>
       </c>
       <c r="S9">
-        <v>0.09254055242990301</v>
+        <v>0.05981291566481117</v>
       </c>
       <c r="T9">
-        <v>0.09254055242990301</v>
+        <v>0.05981291566481117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H10">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I10">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J10">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N10">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O10">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P10">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q10">
-        <v>63.60179125133733</v>
+        <v>106.8992199673587</v>
       </c>
       <c r="R10">
-        <v>572.4161212620361</v>
+        <v>962.092979706228</v>
       </c>
       <c r="S10">
-        <v>0.0578359646578905</v>
+        <v>0.06560863261014724</v>
       </c>
       <c r="T10">
-        <v>0.05783596465789052</v>
+        <v>0.06560863261014725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H11">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I11">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J11">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N11">
         <v>131.049072</v>
       </c>
       <c r="O11">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P11">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q11">
-        <v>82.52404688774402</v>
+        <v>91.81184408457601</v>
       </c>
       <c r="R11">
-        <v>742.7164219896962</v>
+        <v>826.306596761184</v>
       </c>
       <c r="S11">
-        <v>0.07504282136276005</v>
+        <v>0.05634886344020442</v>
       </c>
       <c r="T11">
-        <v>0.07504282136276005</v>
+        <v>0.05634886344020443</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H12">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I12">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J12">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N12">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O12">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P12">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q12">
-        <v>64.69689342310534</v>
+        <v>77.01657765645267</v>
       </c>
       <c r="R12">
-        <v>582.2720408079481</v>
+        <v>693.149198908074</v>
       </c>
       <c r="S12">
-        <v>0.05883179023539453</v>
+        <v>0.0472683743613469</v>
       </c>
       <c r="T12">
-        <v>0.05883179023539454</v>
+        <v>0.04726837436134691</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.889156</v>
+        <v>2.101774</v>
       </c>
       <c r="H13">
-        <v>5.667468</v>
+        <v>6.305322</v>
       </c>
       <c r="I13">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="J13">
-        <v>0.2220443941632887</v>
+        <v>0.1910385065181404</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N13">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O13">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P13">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q13">
-        <v>33.357879751892</v>
+        <v>35.54035029301667</v>
       </c>
       <c r="R13">
-        <v>300.220917767028</v>
+        <v>319.8631526371501</v>
       </c>
       <c r="S13">
-        <v>0.03033381790724362</v>
+        <v>0.02181263610644178</v>
       </c>
       <c r="T13">
-        <v>0.03033381790724363</v>
+        <v>0.02181263610644178</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H14">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I14">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J14">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N14">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O14">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P14">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q14">
-        <v>3.568756776476556</v>
+        <v>54.60867403659978</v>
       </c>
       <c r="R14">
-        <v>32.11881098828901</v>
+        <v>491.478066329398</v>
       </c>
       <c r="S14">
-        <v>0.003245230782593177</v>
+        <v>0.03351568358766844</v>
       </c>
       <c r="T14">
-        <v>0.003245230782593178</v>
+        <v>0.03351568358766845</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H15">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I15">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J15">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N15">
         <v>131.049072</v>
       </c>
       <c r="O15">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P15">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q15">
-        <v>4.630502471056002</v>
+        <v>46.901399915216</v>
       </c>
       <c r="R15">
-        <v>41.67452223950401</v>
+        <v>422.112599236944</v>
       </c>
       <c r="S15">
-        <v>0.004210723817603776</v>
+        <v>0.02878539915332021</v>
       </c>
       <c r="T15">
-        <v>0.004210723817603776</v>
+        <v>0.02878539915332022</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H16">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I16">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J16">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N16">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O16">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P16">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q16">
-        <v>3.630203997058556</v>
+        <v>39.34334774322878</v>
       </c>
       <c r="R16">
-        <v>32.671835973527</v>
+        <v>354.090129689059</v>
       </c>
       <c r="S16">
-        <v>0.003301107499396046</v>
+        <v>0.02414669862443284</v>
       </c>
       <c r="T16">
-        <v>0.003301107499396046</v>
+        <v>0.02414669862443284</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1060023333333334</v>
+        <v>1.073675666666667</v>
       </c>
       <c r="H17">
-        <v>0.318007</v>
+        <v>3.221027</v>
       </c>
       <c r="I17">
-        <v>0.01245912136684053</v>
+        <v>0.0975906048152031</v>
       </c>
       <c r="J17">
-        <v>0.01245912136684053</v>
+        <v>0.09759060481520311</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N17">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O17">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P17">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q17">
-        <v>1.871742242966334</v>
+        <v>18.15552447333611</v>
       </c>
       <c r="R17">
-        <v>16.845680186697</v>
+        <v>163.399720260025</v>
       </c>
       <c r="S17">
-        <v>0.00170205926724753</v>
+        <v>0.0111428234497816</v>
       </c>
       <c r="T17">
-        <v>0.00170205926724753</v>
+        <v>0.01114282344978161</v>
       </c>
     </row>
   </sheetData>
